--- a/biology/Botanique/Cypripedium_acaule/Cypripedium_acaule.xlsx
+++ b/biology/Botanique/Cypripedium_acaule/Cypripedium_acaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypripedium acaule
 Le sabot de la Vierge (Cypripedium acaule) est une espèce de plantes à fleurs de la famille des Orchidaceae et de la sous-famille Cypripedioideae. C'est une plante herbacée, vivace et rhizomateuse.
@@ -512,7 +524,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabot de la Vierge, cypripède acaule, cypripède rose.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette orchidée d'Amérique du Nord se distingue par ses deux feuilles basales, sans pétiole, et sa grande fleur rose, rarement blanche, de 8 à 10 cm de diamètre. La fleur est constituée de trois sépales et de trois pétales, dont celui du milieu, le labelle, est gonflé en forme de sabot et fissuré verticalement sur toute sa longueur. Les pétales latéraux et les sépales sont étroits et de couleur vert-brun. La floraison a lieu au printemps (mai-juin). Le fruit est une capsule dressée d'environ 4,5 cm de longueur, en forme de fuseau.
 			Forme commune.
@@ -582,7 +598,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre vient de « Cypris », Vénus, et de « pedilon », soulier. Le nom de l'espèce vient du latin acaule, sans tige.
 </t>
@@ -613,7 +631,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante préfère les sols acides et on la retrouve surtout dans les bois de conifères, sur les rochers granitiques ainsi que dans les tourbières. Elle peut croître dans des milieux humides ou secs, ensoleillés ou ombragés.
 Le cypripède acaule habite les forêts sèches à humides, les marécages, les tourbières, le bord des routes, les forêts de chênes ou de conifères et les érablières. Il préfère les sols très acides (pH 5,3 à 6,1). On le retrouve entre 0 et 1200 mètres d’altitude.
@@ -646,7 +666,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cypripède acaule est le cypripède le plus largement répandu. On le retrouve du cercle arctique jusqu’au tropique du Cancer. Le cypripède acaule se retrouve dans l’est du Canada et des États-Unis. 
 Il est très commun dans les régions aux sols acides du Nouveau-Brunswick, de la Nouvelle-Écosse, de l'Île-du-Prince-Édouard et dans le centre de l’Ontario.
@@ -683,12 +705,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usages médicinaux
-La racine des cypripèdes a des propriétés sédatives et antispasmodiques et on l'utilisait autrefois contre la nervosité, les maux de dents et les spasmes musculaires. Elles sont cependant très difficiles à cultiver, et il est fortement déconseillé de les récolter en nature, puisque cette pratique compromet la survie de l'espèce.
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La racine des cypripèdes a des propriétés sédatives et antispasmodiques et on l'utilisait autrefois contre la nervosité, les maux de dents et les spasmes musculaires. Elles sont cependant très difficiles à cultiver, et il est fortement déconseillé de les récolter en nature, puisque cette pratique compromet la survie de l'espèce.
 La transplantation d’un cypripède se solde très souvent par un échec.  Il ne s’adapte pas à son nouvel habitat et meurt.  Comme il est de croissance très lente, cette pratique entraîne la mort d'un plant de plus de 15 ou 20 ans.
 La perte de l’habitat du cypripède acaule menace la survie de cette orchidée.
-Usages non médicinaux
-Certaines tribus amérindiennes utilisaient cette plante dans la préparation d'un philtre d'amour [réf. nécessaire].
 </t>
         </is>
       </c>
@@ -714,10 +739,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Usages non médicinaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines tribus amérindiennes utilisaient cette plante dans la préparation d'un philtre d'amour [réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cypripedium_acaule</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypripedium_acaule</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante symbolise la beauté capricieuse.
 </t>
